--- a/Network_Exercises/sds_intro_2022.xlsx
+++ b/Network_Exercises/sds_intro_2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htr365/Documents/Introweek2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htr365/Documents/GitHub/Intro_SDS/Network_Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB464FC2-DEEE-D74B-8EA7-DED0FB58AC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0184A3-1DA8-D948-B6C2-51EE9B533661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="577">
   <si>
     <t>Denmark</t>
   </si>
@@ -1760,6 +1760,9 @@
   </si>
   <si>
     <t xml:space="preserve"> , , </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2025,9 +2028,9 @@
   </sheetPr>
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O62" sqref="O62"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4861,6 +4864,9 @@
       <c r="E47" s="3">
         <v>29</v>
       </c>
+      <c r="F47" s="3" t="s">
+        <v>576</v>
+      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
